--- a/vue/Vue2.0 UI/VueMaterialUI-Compare.xlsx
+++ b/vue/Vue2.0 UI/VueMaterialUI-Compare.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12435"/>
+    <workbookView windowWidth="20385" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="5款框架比较" sheetId="1" r:id="rId1"/>
+    <sheet name="选型总结及建议" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>muse-ui(webapp)</t>
   </si>
@@ -33,19 +33,49 @@
     <t>onsen(webapp/hybird)</t>
   </si>
   <si>
-    <t>作者/Star/version</t>
-  </si>
-  <si>
-    <t>myron/4165/2.1.0</t>
-  </si>
-  <si>
-    <t>johnleider/3677/0.14</t>
-  </si>
-  <si>
-    <t>marcosmoura/3792/0.74</t>
-  </si>
-  <si>
-    <t>Vladimir Kharlampidi/10.3K/1.6.3</t>
+    <t>官网</t>
+  </si>
+  <si>
+    <t>http://www.muse-ui.org/#/index</t>
+  </si>
+  <si>
+    <t>https://vuetifyjs.com/</t>
+  </si>
+  <si>
+    <t>http://vuematerial.io/#/</t>
+  </si>
+  <si>
+    <t>http://framework7.io/
+http://framework7.cn
+http://framework7.io/vue/</t>
+  </si>
+  <si>
+    <t>https://onsen.io/
+https://onsen.io/v2/api/vue/</t>
+  </si>
+  <si>
+    <t>作者/Github Star
+version/License</t>
+  </si>
+  <si>
+    <t>myron/4165
+2.1.0/MIT</t>
+  </si>
+  <si>
+    <t>johnleider/3677
+0.14/MIT</t>
+  </si>
+  <si>
+    <t>marcosmoura/3792
+0.74/MIT</t>
+  </si>
+  <si>
+    <t>Vladimir Kharlampidi--Russia/10.3K
+1.6.3/MIT</t>
+  </si>
+  <si>
+    <t>onsen(Tokyo)/5129
+2.5.1/Apache 2.0</t>
   </si>
   <si>
     <t>demo-移动端</t>
@@ -61,6 +91,9 @@
   </si>
   <si>
     <t>http://framework7.io/kitchen-sink-material/</t>
+  </si>
+  <si>
+    <t>https://onsen.io/v2/api/vue/</t>
   </si>
   <si>
     <t>功能</t>
@@ -83,6 +116,21 @@
 3、支持自定义主题</t>
   </si>
   <si>
+    <t>ISO7与Android Material风格
+1、DOM操作及html模板
+2、路由、Page、View
+3、组件库
+4、多皮肤，无自定义主题
+5、辅助库及插件系统</t>
+  </si>
+  <si>
+    <t>1、组件库/CSS组件库
+2、Grid Layout
+2、Monaca Cli
+3、ISO8/Android4.4及浏览器
+4、框架自成体系，可以支持主流JS框架Binding，也可不依赖它们</t>
+  </si>
+  <si>
     <t>体积/按需</t>
   </si>
   <si>
@@ -96,6 +144,14 @@
   <si>
     <t>357kb=219kb+138kb
 支持按需（webpack）</t>
+  </si>
+  <si>
+    <t>964kb=317kb+365kb+94kb+188kb
+不支持组件按需</t>
+  </si>
+  <si>
+    <t>345kb=200kb+44kb+101kb
+不支持按需</t>
   </si>
   <si>
     <t>组件完善度
@@ -118,16 +174,35 @@
 2、2个layout组件</t>
   </si>
   <si>
+    <t>完善，共计约50个资源
+1、30左右基础组件
+2、10多个app增强组件</t>
+  </si>
+  <si>
+    <t>比较完善，47个组件
+1、35个基础组件
+2、8拓展组件
+3、4个增强指令</t>
+  </si>
+  <si>
     <t>国际化</t>
   </si>
   <si>
-    <t>无（无需国际化）</t>
+    <t>无
+默认中文</t>
+  </si>
+  <si>
+    <t>无
+默认英文</t>
   </si>
   <si>
     <t>易用性</t>
   </si>
   <si>
     <t>强</t>
+  </si>
+  <si>
+    <t>中等</t>
   </si>
   <si>
     <t>拓展性</t>
@@ -151,10 +226,104 @@
 stackoverflow和github上提问不多</t>
   </si>
   <si>
+    <t>上（活跃）</t>
+  </si>
+  <si>
+    <t>中上
+有自己的社区和博客，</t>
+  </si>
+  <si>
     <t>官方文档资料</t>
   </si>
   <si>
-    <t>中等</t>
+    <t>中上</t>
+  </si>
+  <si>
+    <t>中等
+整体框架的资料挺多，但关于Vue的并不多</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分析：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+5款框架各有所长，均来源与vue官方推荐资源中，github中star均超过2K以上。特点：
+1、onsenui与framework7为全功能类型hybird框架，Vue只是其支持DOM框架或插件，但webapp或hybird效果都非同一般。
+2、muse-ui、Vue-material、vuetify为vue组件库型框架，用户体验效果也还算可以，且仅有vuetify不支持组件按需。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建议：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1、从造轮子/可拓展组件库的视角来看，显然Vue组件型框架比较合适。综合比较又以muse-ui组件可按需力度最小，可拓展性最强。
+2、从简单/速造webapp视角来看，hybird类型框架更有优势。综合比较framework7在社区资料、体验、成功案例等诸多方面稍胜一筹。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结论：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">muse-ui更为合适
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>理由：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">大而全的material框架更适合快速开发webapp，而不合适组件库扩展且更容易框架本身的影响，就目前而言我们更需要一个可拓展性且小而美的的UI组件库。
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -163,11 +332,18 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +369,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -203,59 +387,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,6 +407,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,6 +441,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -314,6 +468,29 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,8 +518,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,7 +536,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,181 +716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,39 +782,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -675,6 +821,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -705,172 +884,184 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -878,58 +1069,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1269,306 +1463,339 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4:F10"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="19.7" customWidth="1"/>
-    <col min="2" max="2" width="28.9416666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.9" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.825" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.2083333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.225" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.9416666666667" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.9" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.825" style="6" customWidth="1"/>
+    <col min="5" max="5" width="32.2083333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="29.225" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:6">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" s="3" customFormat="1" ht="27" customHeight="1" spans="1:6">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="4" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" ht="40.5" spans="1:6">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11" t="s">
+    </row>
+    <row r="4" ht="40.5" spans="1:6">
+      <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="A5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="A12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="17"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="A16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" ht="17" customHeight="1" spans="1:6">
-      <c r="A18" s="17"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="17" hidden="1" customHeight="1" spans="1:6">
-      <c r="A19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:6">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="19" hidden="1" customHeight="1" spans="1:6">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="16" hidden="1" customHeight="1" spans="1:6">
-      <c r="A22" s="22"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="21"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" ht="17" customHeight="1" spans="1:6">
+      <c r="A19" s="21"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" s="5" customFormat="1" ht="17" customHeight="1" spans="1:6">
+      <c r="A20" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" s="5" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" s="5" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="A23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="17"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -1576,39 +1803,43 @@
       <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="7"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="7"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="7"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -1616,39 +1847,43 @@
       <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:6">
-      <c r="A34" s="25"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -1656,109 +1891,205 @@
       <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="12"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="14"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="E37" s="29"/>
       <c r="F37" s="19"/>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="26"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="26"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+    <row r="40" spans="1:4">
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="30"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="30"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="30"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="30"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="30"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="30"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="30"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="30"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="30"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="30"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="30"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="30"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="30"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="30"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="30"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="C31:C34"/>
     <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D4:D10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D22"/>
     <mergeCell ref="D23:D26"/>
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="D31:D34"/>
     <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E4:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E5:E11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E20:E22"/>
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="E27:E30"/>
     <mergeCell ref="E31:E34"/>
     <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F4:F10"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="F20:F22"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="F31:F34"/>
     <mergeCell ref="F35:F37"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://www.muse-ui.org/#/list"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://vuetifyjs.com/components/alerts"/>
-    <hyperlink ref="D3" r:id="rId3" display="https://www.awesomes.cn/repo/marcosmoura/vue-material"/>
-    <hyperlink ref="E3" r:id="rId4" display="http://framework7.io/kitchen-sink-material/"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://www.muse-ui.org/#/list"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://vuetifyjs.com/components/alerts"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://www.awesomes.cn/repo/marcosmoura/vue-material"/>
+    <hyperlink ref="E4" r:id="rId4" display="http://framework7.io/kitchen-sink-material/"/>
+    <hyperlink ref="F4" r:id="rId5" display="https://onsen.io/v2/api/vue/"/>
+    <hyperlink ref="F2" r:id="rId6" display="https://onsen.io/&#10;https://onsen.io/v2/api/vue/" tooltip="https://onsen.io/&#10;https://onsen.io/v2/api/vue/"/>
+    <hyperlink ref="E2" r:id="rId7" display="http://framework7.io/&#10;http://framework7.cn&#10;http://framework7.io/vue/" tooltip="http://framework7.io/&#10;http://framework7.cn&#10;http://framework7.io/vue/"/>
+    <hyperlink ref="C2" r:id="rId8" display="https://vuetifyjs.com/"/>
+    <hyperlink ref="D2" r:id="rId9" display="http://vuematerial.io/#/"/>
+    <hyperlink ref="B2" r:id="rId10" display="http://www.muse-ui.org/#/index"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1769,14 +2100,383 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="13" max="13" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" hidden="1" spans="1:13">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" hidden="1" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" hidden="1" spans="1:13">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" hidden="1" spans="1:13">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" hidden="1" spans="1:13">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" ht="12" customHeight="1" spans="1:13">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M24"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
